--- a/to_return/UploadTemplate_output_add_segments.xlsx
+++ b/to_return/UploadTemplate_output_add_segments.xlsx
@@ -14,48 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>RefID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Segment Name</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>TTL</t>
-  </si>
-  <si>
-    <t>Segment ID</t>
-  </si>
-  <si>
-    <t>Category Result</t>
-  </si>
-  <si>
-    <t>Add Segment Result</t>
-  </si>
-  <si>
-    <t>TEST 20181108 - TEST 20181108 Layer 1 - Child Segment 20181108007</t>
-  </si>
-  <si>
-    <t>TEST 20181108 - Child Segment 20181108008</t>
-  </si>
-  <si>
-    <t>apac</t>
-  </si>
-  <si>
-    <t>1349228</t>
-  </si>
-  <si>
-    <t>1349229</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>Segment Description</t>
+  </si>
+  <si>
+    <t>Segment Status</t>
+  </si>
+  <si>
+    <t>Segment Lifetime</t>
+  </si>
+  <si>
+    <t>Trait Folder Path</t>
+  </si>
+  <si>
+    <t>Data Source ID</t>
+  </si>
+  <si>
+    <t>Data Source Name</t>
+  </si>
+  <si>
+    <t>Data Source Result</t>
+  </si>
+  <si>
+    <t>Data Feed Result</t>
+  </si>
+  <si>
+    <t>Segments and Overlap Plan Result</t>
+  </si>
+  <si>
+    <t>Modeling Plan Result</t>
+  </si>
+  <si>
+    <t>Activation Plan Result</t>
+  </si>
+  <si>
+    <t>Trait Folder Result</t>
+  </si>
+  <si>
+    <t>Create Segment Result</t>
+  </si>
+  <si>
+    <t>Test Segment 1</t>
+  </si>
+  <si>
+    <t>Test Segment 2</t>
+  </si>
+  <si>
+    <t>HG Data's curation IP and supervised machine learning utilizes billions of unstructured source documents for unseen intelligence and insights about industries and companies worldwide. Use this segment to address the key decision makers and influencers with detected past purchases of the category of technologies listed here.</t>
+  </si>
+  <si>
+    <t>/All Traits/TEST20181030/TEST</t>
+  </si>
+  <si>
+    <t>/All Traits/TEST20181030</t>
+  </si>
+  <si>
+    <t>test20181030</t>
+  </si>
+  <si>
+    <t>Existing Data Source</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Existing folder</t>
+  </si>
+  <si>
+    <t>['description size must be between 0 and 255']</t>
   </si>
 </sst>
 </file>
@@ -413,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,57 +474,81 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>20181108007</v>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>421167</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>20181108008</v>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>421167</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
